--- a/Excel/Agreement_Information.xlsx
+++ b/Excel/Agreement_Information.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayan.thakor\Documents\PersonalWorkspace\AMPS_Automation_V2\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3364F2E-1B29-48B9-AD7F-EC30300B2997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76C7623-2AAC-4D39-B22C-CFE25D55E3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="PayeeInfo" sheetId="15" r:id="rId6"/>
     <sheet name="AgreementForm" sheetId="16" r:id="rId7"/>
     <sheet name="AgreementObligations" sheetId="17" r:id="rId8"/>
+    <sheet name="RecordingInfo" sheetId="18" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="149">
   <si>
     <t>Project Name</t>
   </si>
@@ -373,9 +374,6 @@
     <t>AgreementFormALT</t>
   </si>
   <si>
-    <t>AgreementFormDOT</t>
-  </si>
-  <si>
     <t>AgreementFormROW</t>
   </si>
   <si>
@@ -436,13 +434,52 @@
     <t>AddAgreementObligationsRAW</t>
   </si>
   <si>
-    <t>Parcel #: TEST ALT A00002, Grantor Name: , County PID:</t>
-  </si>
-  <si>
     <t>Agreement</t>
   </si>
   <si>
     <t>AddPayeeInformationROW</t>
+  </si>
+  <si>
+    <t>AddRecordingInfoALT</t>
+  </si>
+  <si>
+    <t>AddRecordingInfoRAW</t>
+  </si>
+  <si>
+    <t>EditRecordingInfoALT</t>
+  </si>
+  <si>
+    <t>EditRecordingInfoRAW</t>
+  </si>
+  <si>
+    <t>DocumentType</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Grantor</t>
+  </si>
+  <si>
+    <t>Grantee</t>
+  </si>
+  <si>
+    <t>Parcel #: 06514, Grantor Name: , County PID: IND001</t>
+  </si>
+  <si>
+    <t>Sample Lease Workflow</t>
   </si>
 </sst>
 </file>
@@ -1672,10 +1709,10 @@
         <v>83</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
         <v>97</v>
@@ -1709,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76DE2ED-E37E-42FD-8666-BDDBB73E2639}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,12 +1787,12 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>32</v>
@@ -1771,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC924C51-880D-4D0C-A3DC-B77EB4ABFDEE}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1862,7 +1899,7 @@
         <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
@@ -1882,7 +1919,7 @@
         <v>113</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
         <v>111</v>
@@ -1891,47 +1928,18 @@
         <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1983,99 +1991,202 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>120</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
         <v>122</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>123</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>124</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>125</v>
-      </c>
-      <c r="F3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
         <v>122</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>123</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>124</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
         <v>129</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>130</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>131</v>
       </c>
-      <c r="E5" t="s">
-        <v>132</v>
-      </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
         <v>128</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>129</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>130</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>131</v>
       </c>
-      <c r="E6" t="s">
-        <v>132</v>
-      </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735050D9-4592-40C0-87B6-55828253FE6D}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Agreement_Information.xlsx
+++ b/Excel/Agreement_Information.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayan.thakor\Documents\PersonalWorkspace\AMPS_Automation_V2\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Praful_Personal\GitProject\AutomationTestScript\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0592F2D3-5DA4-4DA0-BD93-8CBFD6DEC3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AgreementInfo" sheetId="14" r:id="rId1"/>
@@ -20,6 +19,7 @@
     <sheet name="RecordingInfo" sheetId="18" r:id="rId5"/>
     <sheet name="PaymentInfo" sheetId="19" r:id="rId6"/>
     <sheet name="AgreementNote" sheetId="20" r:id="rId7"/>
+    <sheet name="Documents" sheetId="21" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="142">
   <si>
     <t>Project Name</t>
   </si>
@@ -303,12 +303,6 @@
     <t>EditAgreementObligationsROW</t>
   </si>
   <si>
-    <t>AddRecordingInfoROW</t>
-  </si>
-  <si>
-    <t>EditRecordingInfoROW</t>
-  </si>
-  <si>
     <t>AddPaymentInformationROW</t>
   </si>
   <si>
@@ -325,13 +319,151 @@
   </si>
   <si>
     <t>Survey Notes</t>
+  </si>
+  <si>
+    <t>DocumentName</t>
+  </si>
+  <si>
+    <t>ExternalLink</t>
+  </si>
+  <si>
+    <t>EditDocumentName</t>
+  </si>
+  <si>
+    <t>EditDescription</t>
+  </si>
+  <si>
+    <t>AddDocumentALT</t>
+  </si>
+  <si>
+    <t>GIS</t>
+  </si>
+  <si>
+    <t>Test Description ALT</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>AddDocumentDOT</t>
+  </si>
+  <si>
+    <t>Test Description DOT</t>
+  </si>
+  <si>
+    <t>AddDocumentROW</t>
+  </si>
+  <si>
+    <t>AddExternalDocALT</t>
+  </si>
+  <si>
+    <t>Docusign Demo</t>
+  </si>
+  <si>
+    <t>Test Document Name</t>
+  </si>
+  <si>
+    <t>www.test.com</t>
+  </si>
+  <si>
+    <t>AddExternalDocDOT</t>
+  </si>
+  <si>
+    <t>Test Document NameALT</t>
+  </si>
+  <si>
+    <t>AddExternalDocROW</t>
+  </si>
+  <si>
+    <t>Test Document NameDOT</t>
+  </si>
+  <si>
+    <t>EditExternalDocALT</t>
+  </si>
+  <si>
+    <t>Edit Name1</t>
+  </si>
+  <si>
+    <t>Edit Description</t>
+  </si>
+  <si>
+    <t>EditExternalDocDOT</t>
+  </si>
+  <si>
+    <t>Edit Name2</t>
+  </si>
+  <si>
+    <t>EditExternalDocROW</t>
+  </si>
+  <si>
+    <t>Edit Name3</t>
+  </si>
+  <si>
+    <t>AddDocVersionALT</t>
+  </si>
+  <si>
+    <t>AddDocVersionROW</t>
+  </si>
+  <si>
+    <t>Doc Type1</t>
+  </si>
+  <si>
+    <t>Test Book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Volume </t>
+  </si>
+  <si>
+    <t>Test Page</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>BENT</t>
+  </si>
+  <si>
+    <t>Test Grantor</t>
+  </si>
+  <si>
+    <t>Test Grantee</t>
+  </si>
+  <si>
+    <t>AddRecordingInfoRAW</t>
+  </si>
+  <si>
+    <t>Edit Doc Type1</t>
+  </si>
+  <si>
+    <t>Edit Test Book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Test Volume </t>
+  </si>
+  <si>
+    <t>Edit Test Page</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>POLK</t>
+  </si>
+  <si>
+    <t>Edit Test Grantor</t>
+  </si>
+  <si>
+    <t>Edit Test Grantee</t>
+  </si>
+  <si>
+    <t>EditRecordingInfoRAW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +475,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -371,10 +511,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -384,8 +525,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -663,7 +806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4889DE45-9971-4E1D-895A-22B988666BDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -818,7 +961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76DE2ED-E37E-42FD-8666-BDDBB73E2639}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -882,7 +1025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC924C51-880D-4D0C-A3DC-B77EB4ABFDEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1024,7 +1167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E0AF04-7666-4C2C-91E4-9D330789ED2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1167,11 +1310,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735050D9-4592-40C0-87B6-55828253FE6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,6 +1325,7 @@
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1246,22 +1390,116 @@
       <c r="A3" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>141</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC8F992-58B6-4438-BEC4-414FA2C9235A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1322,7 +1560,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1"/>
     </row>
@@ -1332,10 +1570,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AF2571-5758-43D3-B365-D43C27134DB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1400,13 +1638,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
         <v>54</v>
@@ -1423,7 +1661,7 @@
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
@@ -1434,13 +1672,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
@@ -1452,4 +1690,334 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E8" r:id="rId3"/>
+    <hyperlink ref="E9" r:id="rId4"/>
+    <hyperlink ref="E10" r:id="rId5"/>
+    <hyperlink ref="E11" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Agreement_Information.xlsx
+++ b/Excel/Agreement_Information.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AgreementInfo" sheetId="14" r:id="rId1"/>
     <sheet name="PayeeInfo" sheetId="15" r:id="rId2"/>
     <sheet name="AgreementForm" sheetId="16" r:id="rId3"/>
     <sheet name="AgreementObligations" sheetId="17" r:id="rId4"/>
-    <sheet name="RecordingInfo" sheetId="18" r:id="rId5"/>
-    <sheet name="PaymentInfo" sheetId="19" r:id="rId6"/>
-    <sheet name="AgreementNote" sheetId="20" r:id="rId7"/>
-    <sheet name="Documents" sheetId="21" r:id="rId8"/>
+    <sheet name="PaymentInfo" sheetId="19" r:id="rId5"/>
+    <sheet name="AgreementNote" sheetId="20" r:id="rId6"/>
+    <sheet name="Documents" sheetId="21" r:id="rId7"/>
+    <sheet name="RecordingInfo" sheetId="18" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="141">
   <si>
     <t>Project Name</t>
   </si>
@@ -144,9 +144,6 @@
     <t>LandownerName</t>
   </si>
   <si>
-    <t>Parcel #: test1, Grantor Name: , County PID:</t>
-  </si>
-  <si>
     <t>AvailableTract</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
     <t>Grantee</t>
   </si>
   <si>
-    <t>Parcel #: 06514, Grantor Name: , County PID: IND001</t>
-  </si>
-  <si>
     <t>Sample Lease Workflow</t>
   </si>
   <si>
@@ -457,6 +451,9 @@
   </si>
   <si>
     <t>EditRecordingInfoRAW</t>
+  </si>
+  <si>
+    <t>Parcel #: 03375, Grantor Name: , County PID: IND001</t>
   </si>
 </sst>
 </file>
@@ -927,10 +924,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -964,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,7 +991,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1005,18 +1002,18 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1082,13 +1079,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>4</v>
@@ -1105,19 +1102,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -1134,19 +1131,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -1209,99 +1206,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>54</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>55</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>56</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
         <v>58</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>61</v>
       </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
         <v>59</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>60</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>61</v>
       </c>
-      <c r="E6" t="s">
-        <v>62</v>
-      </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1310,204 +1307,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5" t="s">
-        <v>139</v>
-      </c>
-      <c r="I5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H6" t="s">
-        <v>139</v>
-      </c>
-      <c r="I6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1541,26 +1340,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1"/>
     </row>
@@ -1569,7 +1368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1607,13 +1406,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
@@ -1621,70 +1420,70 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
         <v>83</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>93</v>
-      </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1692,12 +1491,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,269 +1543,269 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
         <v>96</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>97</v>
-      </c>
-      <c r="F2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" t="s">
-        <v>102</v>
-      </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" t="s">
         <v>115</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2020,4 +1819,202 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Agreement_Information.xlsx
+++ b/Excel/Agreement_Information.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Praful_Personal\GitProject\AutomationTestScript\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayan.thakor\Documents\PersonalWorkspace\AMPS_Automation_V2\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A874DFFC-86CF-4505-BDBA-59A6567DFC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AgreementInfo" sheetId="14" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="157">
   <si>
     <t>Project Name</t>
   </si>
@@ -453,13 +454,61 @@
     <t>EditRecordingInfoRAW</t>
   </si>
   <si>
-    <t>Parcel #: 03375, Grantor Name: , County PID: IND001</t>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Annual Payment</t>
+  </si>
+  <si>
+    <t>00001: 01/01/2023</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>SurfaceOwnership</t>
+  </si>
+  <si>
+    <t>WindOwnership</t>
+  </si>
+  <si>
+    <t>CropOwnership</t>
+  </si>
+  <si>
+    <t>ContactType</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>EntityName</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Trustee</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Grantor Name: , County PID:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -512,7 +561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -523,6 +572,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -803,7 +853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -958,11 +1008,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,7 +1022,7 @@
     <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -982,8 +1032,29 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -993,8 +1064,29 @@
       <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1002,18 +1094,60 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>140</v>
+      <c r="C4" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +1156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1164,11 +1298,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,7 +1380,7 @@
         <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
@@ -1286,7 +1420,7 @@
         <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
         <v>59</v>
@@ -1307,21 +1441,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1331,11 +1465,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1346,7 +1477,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -1357,11 +1488,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1369,7 +1503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1492,7 +1626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1810,19 +1944,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E8" r:id="rId3"/>
-    <hyperlink ref="E9" r:id="rId4"/>
-    <hyperlink ref="E10" r:id="rId5"/>
-    <hyperlink ref="E11" r:id="rId6"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
